--- a/p3/kit-sampler-v1.0-project/Kit-Sampler-v1.0-bom-posin.xlsx
+++ b/p3/kit-sampler-v1.0-project/Kit-Sampler-v1.0-bom-posin.xlsx
@@ -174,7 +174,7 @@
     <t>Samtec</t>
   </si>
   <si>
-    <t>SSW-105-01-G-D</t>
+    <t>SSW-105-01-T-D</t>
   </si>
   <si>
     <t>JA1, JB1, JC1, JD1</t>
